--- a/Session13_Ta/Practical13.xlsx
+++ b/Session13_Ta/Practical13.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://polimi365-my.sharepoint.com/personal/10539340_polimi_it/Documents/PhD/CCRE_DC_KN/A.Y. 23-24/Practical13/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\CCRE_Fall_2023\Session13_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="700" documentId="8_{87CE165D-08E4-422E-ACFD-C640006B9126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97601A45-C695-421D-AB4D-53371791925A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31572E15-4EE7-4A69-8E8D-9F0001927BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{D8C94763-68ED-4754-B889-67D69145CD04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{D8C94763-68ED-4754-B889-67D69145CD04}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="6" r:id="rId1"/>
@@ -227,7 +227,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -409,7 +409,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -447,7 +447,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1870927119"/>
@@ -527,7 +527,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -565,7 +565,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1270338991"/>
@@ -613,7 +613,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -627,7 +627,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -664,7 +664,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -830,7 +830,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -944,7 +944,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15777519"/>
@@ -1006,7 +1006,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="225588559"/>
@@ -1054,7 +1054,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1068,7 +1068,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1250,7 +1250,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1288,7 +1288,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1870927119"/>
@@ -1368,7 +1368,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1406,7 +1406,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1270338991"/>
@@ -1454,7 +1454,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1468,7 +1468,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1505,7 +1505,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1679,7 +1679,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1793,7 +1793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="15777519"/>
@@ -1855,7 +1855,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="225588559"/>
@@ -1903,7 +1903,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4599,18 +4599,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF23F3FB-EE50-49C5-AA31-E704CF8CC948}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4618,7 +4618,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -4646,14 +4646,14 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4734,7 +4734,7 @@
         <v>2.9333333333333362</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7+273.15</f>
         <v>493.15</v>
@@ -4778,7 +4778,7 @@
         <v>3.0000000000000027</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -4825,7 +4825,7 @@
         <v>2.8800000000000026</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>2.9333333333333362</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <v>5</v>
       </c>
@@ -4909,16 +4909,16 @@
         <v>2.9142857142857106</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>4.9333333333333371</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B15+273.15</f>
         <v>513.15</v>
@@ -5043,7 +5043,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>4.9600000000000044</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>4.9999999999999964</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <v>5</v>
       </c>
@@ -5174,16 +5174,16 @@
         <v>4.9714285714285698</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -5264,7 +5264,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B23+273.15</f>
         <v>513.15</v>
@@ -5308,7 +5308,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <v>5</v>
       </c>
@@ -5439,16 +5439,16 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>8.1333333333333417</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>B31+273.15</f>
         <v>533.15</v>
@@ -5573,7 +5573,7 @@
         <v>8.1999999999999957</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>8.1600000000000072</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>8.2000000000000011</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <v>5</v>
       </c>
@@ -5704,10 +5704,10 @@
         <v>8.1714285714285726</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>493.15</v>
       </c>
@@ -5737,7 +5737,7 @@
         <v>-2.0277805941397143E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>513.15</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>-1.948747929455325E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>533.15</v>
       </c>
@@ -5769,7 +5769,7 @@
         <v>-1.8756447528838038E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5777,7 +5777,7 @@
         <v>7409.2</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -5785,7 +5785,7 @@
         <v>15.009</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -5794,10 +5794,10 @@
         <v>3298571.3221088354</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
     </row>
   </sheetData>
@@ -5811,18 +5811,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72036F4D-CDEA-4000-872D-AF4AB51AB1D8}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.73046875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -5830,7 +5830,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -5844,7 +5844,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -5858,7 +5858,7 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
@@ -5869,7 +5869,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>2.9333333333333362</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>B7+273.15</f>
         <v>493.15</v>
@@ -5994,7 +5994,7 @@
         <v>3.0000000000000027</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>2.8800000000000026</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>2.9333333333333362</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <v>5</v>
       </c>
@@ -6125,16 +6125,16 @@
         <v>2.9142857142857106</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>4.9333333333333371</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16">
         <f>B15+273.15</f>
         <v>513.15</v>
@@ -6259,7 +6259,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -6306,7 +6306,7 @@
         <v>4.9600000000000044</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>4.9999999999999964</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <v>5</v>
       </c>
@@ -6390,16 +6390,16 @@
         <v>4.9714285714285698</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="4"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -6434,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24">
         <f>B23+273.15</f>
         <v>513.15</v>
@@ -6524,7 +6524,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -6618,7 +6618,7 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
         <v>5</v>
       </c>
@@ -6655,16 +6655,16 @@
         <v>5.0000000000000044</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="4"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>8.1333333333333417</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B32">
         <f>B31+273.15</f>
         <v>533.15</v>
@@ -6789,7 +6789,7 @@
         <v>8.1999999999999957</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>8.1600000000000072</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>8.2000000000000011</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <v>5</v>
       </c>
@@ -6920,10 +6920,10 @@
         <v>8.1714285714285726</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N36" s="4"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>493.15</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>-2.0277805941397143E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>513.15</v>
       </c>
@@ -6969,7 +6969,7 @@
         <v>-1.948747929455325E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>533.15</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>-1.8756447528838038E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>7409.1</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>15.759</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -7010,10 +7010,10 @@
         <v>6983075.5437024962</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
     </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B78" s="4"/>
     </row>
   </sheetData>

--- a/Session13_Ta/Practical13.xlsx
+++ b/Session13_Ta/Practical13.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\CCRE_Fall_2023\Session13_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31572E15-4EE7-4A69-8E8D-9F0001927BC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFCF55-F09D-4AF2-9720-391D216AB151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{D8C94763-68ED-4754-B889-67D69145CD04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{D8C94763-68ED-4754-B889-67D69145CD04}"/>
   </bookViews>
   <sheets>
     <sheet name="ex1" sheetId="6" r:id="rId1"/>
-    <sheet name="ex2" sheetId="7" r:id="rId2"/>
+    <sheet name="ex2 (2)" sheetId="9" r:id="rId2"/>
+    <sheet name="ex2" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="43">
   <si>
     <t>K</t>
   </si>
@@ -136,6 +137,36 @@
   </si>
   <si>
     <t>espi</t>
+  </si>
+  <si>
+    <t>1st condition</t>
+  </si>
+  <si>
+    <t>Q_298</t>
+  </si>
+  <si>
+    <t>diameter</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>2nd condition</t>
+  </si>
+  <si>
+    <t>3rd condition</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>catalyst density</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>r/CA2</t>
   </si>
 </sst>
 </file>
@@ -1088,6 +1119,1028 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ex2 (2)'!$F$8:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ex2 (2)'!$M$8:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.32553264167086327</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.32553264167086232</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3255326416708641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.32553264167086376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32553264167086282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1107-46FD-8C39-3109562D7A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ex2 (2)'!$F$17:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ex2 (2)'!$M$17:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.60223538709109714</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.59680984306324836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58130828869797024</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.57985501797622563</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.57872469630375734</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1107-46FD-8C39-3109562D7A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ex2 (2)'!$F$27:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ex2 (2)'!$M$27:$M$31</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.81383160417715827</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.81383160417715839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.80220543840319836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.79348581407272856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.78670388403791813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1107-46FD-8C39-3109562D7A90}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1270338991"/>
+        <c:axId val="1870927119"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1270338991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="2400"/>
+                  <a:t>CA_in</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1870927119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1870927119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT" sz="2400"/>
+                  <a:t>r/CAin</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1270338991"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ex2 (2)'!$D$50:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-2.2222222222222222E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0833333333333333E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9607843137254902E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ex2 (2)'!$C$50:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-1.1222925407304634</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.52763274208237199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.22314355131420971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-B5C5-44DE-A266-57A304216670}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="225588559"/>
+        <c:axId val="15777519"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="225588559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="15777519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="15777519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="225588559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1465,7 +2518,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2074,6 +3127,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3623,6 +4756,1038 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4220,6 +6385,87 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101201</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>75010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>506016</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89297</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56A7902B-C3FC-4C37-B7B7-DC8FA33007D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>486573</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>546105</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>121443</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F6F9F1A-1A66-4E8C-AF91-E62AFFE3C464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4599,8 +6845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF23F3FB-EE50-49C5-AA31-E704CF8CC948}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5808,11 +8054,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72036F4D-CDEA-4000-872D-AF4AB51AB1D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405A20E2-7CD9-4B49-B4F8-86216A49F312}">
   <dimension ref="A1:N78"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5832,6 +8078,1102 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1750</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <f xml:space="preserve"> 0.25*PI()*H2^2*H3</f>
+        <v>7.0685834705770344E-6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7">
+        <f xml:space="preserve"> 0.08</f>
+        <v>0.08</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
+        <f xml:space="preserve"> (1-L8/100)*F8</f>
+        <v>0.98</v>
+      </c>
+      <c r="H8">
+        <f xml:space="preserve"> G8-F8</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <f xml:space="preserve"> H8/$B$11</f>
+        <v>-341.80927375440643</v>
+      </c>
+      <c r="J8" s="6">
+        <f xml:space="preserve"> -I8/((1-$B$4)*$B$2)</f>
+        <v>0.32553264167086327</v>
+      </c>
+      <c r="K8" s="6">
+        <f xml:space="preserve"> J8/F8</f>
+        <v>0.32553264167086327</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <f xml:space="preserve"> J8/F8^2</f>
+        <v>0.32553264167086327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" ref="G9:G12" si="0" xml:space="preserve"> (1-L9/100)*F9</f>
+        <v>1.1712</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ref="H9:H12" si="1" xml:space="preserve"> G9-F9</f>
+        <v>-2.8799999999999937E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" ref="I9:I12" si="2" xml:space="preserve"> H9/$B$11</f>
+        <v>-492.20535420634377</v>
+      </c>
+      <c r="J9" s="6">
+        <f t="shared" ref="J9:J12" si="3" xml:space="preserve"> -I9/((1-$B$4)*$B$2)</f>
+        <v>0.46876700400604171</v>
+      </c>
+      <c r="K9" s="6">
+        <f t="shared" ref="K9:K12" si="4" xml:space="preserve"> J9/F9</f>
+        <v>0.39063917000503479</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:M12" si="5" xml:space="preserve"> J9/F9^2</f>
+        <v>0.32553264167086232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <f>B7*B9/298</f>
+        <v>0.12080536912751678</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="0"/>
+        <v>1.3607999999999998</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>-3.9200000000000124E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <f t="shared" si="2"/>
+        <v>-669.94617655863817</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.63804397767489351</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="4"/>
+        <v>0.45574569833920969</v>
+      </c>
+      <c r="L10" s="7">
+        <v>2.8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="5"/>
+        <v>0.3255326416708641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4">
+        <f>$B$3/B10</f>
+        <v>5.8512163173109889E-5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5488</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>-5.1200000000000134E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" si="2"/>
+        <v>-875.03174081128202</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.83336356267741141</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="4"/>
+        <v>0.52085222667338205</v>
+      </c>
+      <c r="L11" s="7">
+        <v>3.2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="5"/>
+        <v>0.32553264167086376</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E12" s="2">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="0"/>
+        <v>1.7352000000000001</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>-6.4799999999999969E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" si="2"/>
+        <v>-1107.4620469642755</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0547257590135957</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="4"/>
+        <v>0.58595875500755312</v>
+      </c>
+      <c r="L12" s="7">
+        <v>3.6</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>0.32553264167086282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <f xml:space="preserve"> AVERAGE(M8:M12)</f>
+        <v>0.32553264167086327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>0.1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <f xml:space="preserve"> (1-L17/100)*F17</f>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="H17">
+        <f xml:space="preserve"> G17-F17</f>
+        <v>-3.7000000000000033E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <f xml:space="preserve"> H17/$B$11</f>
+        <v>-632.34715644565199</v>
+      </c>
+      <c r="J17" s="6">
+        <f xml:space="preserve"> -I17/((1-$B$4)*$B$2)</f>
+        <v>0.60223538709109714</v>
+      </c>
+      <c r="K17" s="6">
+        <f xml:space="preserve"> J17/F17</f>
+        <v>0.60223538709109714</v>
+      </c>
+      <c r="L17" s="7">
+        <v>3.7</v>
+      </c>
+      <c r="M17" s="6">
+        <f xml:space="preserve"> J17/F17^2</f>
+        <v>0.60223538709109714</v>
+      </c>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>480</v>
+      </c>
+      <c r="C18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" ref="G18:G21" si="6" xml:space="preserve"> (1-L18/100)*F18</f>
+        <v>1.1472</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ref="H18:H21" si="7" xml:space="preserve"> G18-F18</f>
+        <v>-5.2799999999999958E-2</v>
+      </c>
+      <c r="I18" s="4">
+        <f t="shared" ref="I18:I21" si="8" xml:space="preserve"> H18/$B$11</f>
+        <v>-902.37648271163152</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" ref="J18:J21" si="9" xml:space="preserve"> -I18/((1-$B$4)*$B$2)</f>
+        <v>0.85940617401107766</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" ref="K18:K21" si="10" xml:space="preserve"> J18/F18</f>
+        <v>0.71617181167589805</v>
+      </c>
+      <c r="L18" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" ref="M18:M21" si="11" xml:space="preserve"> J18/F18^2</f>
+        <v>0.59680984306324836</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <f>B16*B18/298</f>
+        <v>0.16107382550335569</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3299999999999998</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>-7.0000000000000062E-2</v>
+      </c>
+      <c r="I19" s="4">
+        <f t="shared" si="8"/>
+        <v>-1196.3324581404227</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" si="9"/>
+        <v>1.1393642458480215</v>
+      </c>
+      <c r="K19" s="6">
+        <f t="shared" si="10"/>
+        <v>0.81383160417715827</v>
+      </c>
+      <c r="L19" s="7">
+        <v>5</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="11"/>
+        <v>0.58130828869797024</v>
+      </c>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <f>$B$3/B19</f>
+        <v>4.3884122379832426E-5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5087999999999999</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="7"/>
+        <v>-9.120000000000017E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <f t="shared" si="8"/>
+        <v>-1558.6502883200949</v>
+      </c>
+      <c r="J20" s="6">
+        <f t="shared" si="9"/>
+        <v>1.4844288460191379</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="10"/>
+        <v>0.92776802876196118</v>
+      </c>
+      <c r="L20" s="7">
+        <v>5.7</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="11"/>
+        <v>0.57985501797622563</v>
+      </c>
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E21" s="2">
+        <v>5</v>
+      </c>
+      <c r="F21" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6847999999999999</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="7"/>
+        <v>-0.11520000000000019</v>
+      </c>
+      <c r="I21" s="4">
+        <f t="shared" si="8"/>
+        <v>-1968.8214168253826</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="9"/>
+        <v>1.8750680160241739</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="10"/>
+        <v>1.0417044533467632</v>
+      </c>
+      <c r="L21" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="11"/>
+        <v>0.57872469630375734</v>
+      </c>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L22" s="6"/>
+      <c r="M22" s="6">
+        <f xml:space="preserve"> AVERAGE(M17:M21)</f>
+        <v>0.58778664662645974</v>
+      </c>
+      <c r="N22" s="4"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="6"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>0.15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>1</v>
+      </c>
+      <c r="G27" s="2">
+        <f xml:space="preserve"> (1-L27/100)*F27</f>
+        <v>0.95</v>
+      </c>
+      <c r="H27">
+        <f xml:space="preserve"> G27-F27</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="I27" s="4">
+        <f xml:space="preserve"> H27/$B$11</f>
+        <v>-854.52318438601617</v>
+      </c>
+      <c r="J27" s="6">
+        <f xml:space="preserve"> -I27/((1-$B$4)*$B$2)</f>
+        <v>0.81383160417715827</v>
+      </c>
+      <c r="K27" s="6">
+        <f xml:space="preserve"> J27/F27</f>
+        <v>0.81383160417715827</v>
+      </c>
+      <c r="L27" s="7">
+        <v>5</v>
+      </c>
+      <c r="M27" s="6">
+        <f xml:space="preserve"> J27/F27^2</f>
+        <v>0.81383160417715827</v>
+      </c>
+      <c r="N27" s="7"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>510</v>
+      </c>
+      <c r="C28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" ref="G28:G31" si="12" xml:space="preserve"> (1-L28/100)*F28</f>
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ref="H28:H31" si="13" xml:space="preserve"> G28-F28</f>
+        <v>-7.2000000000000064E-2</v>
+      </c>
+      <c r="I28" s="4">
+        <f t="shared" ref="I28:I31" si="14" xml:space="preserve"> H28/$B$11</f>
+        <v>-1230.5133855158633</v>
+      </c>
+      <c r="J28" s="6">
+        <f t="shared" ref="J28:J31" si="15" xml:space="preserve"> -I28/((1-$B$4)*$B$2)</f>
+        <v>1.171917510015108</v>
+      </c>
+      <c r="K28" s="6">
+        <f t="shared" ref="K28:K31" si="16" xml:space="preserve"> J28/F28</f>
+        <v>0.97659792501259002</v>
+      </c>
+      <c r="L28" s="7">
+        <v>6</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" ref="M28:M31" si="17" xml:space="preserve"> J28/F28^2</f>
+        <v>0.81383160417715839</v>
+      </c>
+      <c r="N28" s="7"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="4">
+        <f>B26*B28/298</f>
+        <v>0.25671140939597314</v>
+      </c>
+      <c r="C29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="2">
+        <v>3</v>
+      </c>
+      <c r="F29" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="12"/>
+        <v>1.3033999999999999</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="13"/>
+        <v>-9.6600000000000019E-2</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="14"/>
+        <v>-1650.9387922337821</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="15"/>
+        <v>1.5723226592702686</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="16"/>
+        <v>1.1230876137644776</v>
+      </c>
+      <c r="L29" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="17"/>
+        <v>0.80220543840319836</v>
+      </c>
+      <c r="N29" s="7"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="4">
+        <f>$B$3/B29</f>
+        <v>2.7535135610875244E-5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="12"/>
+        <v>1.4752000000000001</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="13"/>
+        <v>-0.12480000000000002</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="14"/>
+        <v>-2132.8898682274948</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="15"/>
+        <v>2.0313236840261855</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="16"/>
+        <v>1.2695773025163659</v>
+      </c>
+      <c r="L30" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="17"/>
+        <v>0.79348581407272856</v>
+      </c>
+      <c r="N30" s="4"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E31" s="2">
+        <v>5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6434000000000002</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="13"/>
+        <v>-0.15659999999999985</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="14"/>
+        <v>-2676.3666134969976</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="15"/>
+        <v>2.5489205842828548</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="16"/>
+        <v>1.4160669912682526</v>
+      </c>
+      <c r="L31" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="17"/>
+        <v>0.78670388403791813</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="6"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="6"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="6"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="6"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="6"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="4"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="7"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="7"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="7"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="7"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="7"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>26</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>450</v>
+      </c>
+      <c r="B50" s="6">
+        <f xml:space="preserve"> $M$13</f>
+        <v>0.32553264167086327</v>
+      </c>
+      <c r="C50" s="6">
+        <f>LN(B50)</f>
+        <v>-1.1222925407304634</v>
+      </c>
+      <c r="D50">
+        <f>-1/A50</f>
+        <v>-2.2222222222222222E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>480</v>
+      </c>
+      <c r="B51" s="6">
+        <v>0.59</v>
+      </c>
+      <c r="C51" s="6">
+        <f t="shared" ref="C51:C52" si="18">LN(B51)</f>
+        <v>-0.52763274208237199</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ref="D51:D52" si="19">-1/A51</f>
+        <v>-2.0833333333333333E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>510</v>
+      </c>
+      <c r="B52" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="C52" s="6">
+        <f t="shared" si="18"/>
+        <v>-0.22314355131420971</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="19"/>
+        <v>-1.9607843137254902E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="6">
+        <v>3457.9</v>
+      </c>
+      <c r="D56">
+        <f xml:space="preserve"> B56*8.314</f>
+        <v>28748.980600000003</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="6">
+        <v>6.5983999999999998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="4">
+        <f>EXP(B57)</f>
+        <v>733.91997735940356</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72036F4D-CDEA-4000-872D-AF4AB51AB1D8}">
+  <dimension ref="A1:N78"/>
+  <sheetViews>
+    <sheetView topLeftCell="F2" zoomScale="109" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">

--- a/Session13_Ta/Practical13.xlsx
+++ b/Session13_Ta/Practical13.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sina\Documents\GitHub\CCRE_Fall_2023\Session13_Ta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DFCF55-F09D-4AF2-9720-391D216AB151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DA3CB-B1A9-42A2-906E-09FB802EAC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" activeTab="1" xr2:uid="{D8C94763-68ED-4754-B889-67D69145CD04}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="ex2 (2)" sheetId="9" r:id="rId2"/>
     <sheet name="ex2" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1.0000000000000001E-9"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="43">
   <si>
     <t>K</t>
   </si>
@@ -151,9 +151,6 @@
     <t>length</t>
   </si>
   <si>
-    <t>2nd condition</t>
-  </si>
-  <si>
     <t>3rd condition</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>r/CA2</t>
+  </si>
+  <si>
+    <t>CB</t>
   </si>
 </sst>
 </file>
@@ -1177,19 +1177,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.32553264167086327</c:v>
+                  <c:v>1.2840454199239584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.32553264167086232</c:v>
+                  <c:v>1.2659602731644684</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3255326416708641</c:v>
+                  <c:v>1.247875126404975</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.32553264167086376</c:v>
+                  <c:v>1.2478751264049728</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32553264167086282</c:v>
+                  <c:v>1.229789979645483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,48 +1233,48 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ex2 (2)'!$F$17:$F$21</c:f>
+              <c:f>'ex2 (2)'!$F$24:$F$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2</c:v>
+                  <c:v>1.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4</c:v>
+                  <c:v>1.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ex2 (2)'!$M$17:$M$21</c:f>
+              <c:f>'ex2 (2)'!$M$24:$M$28</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.60223538709109714</c:v>
+                  <c:v>0.73847682601260534</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59680984306324836</c:v>
+                  <c:v>0.63298013658223362</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.58130828869797024</c:v>
+                  <c:v>0.55046665449204935</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57985501797622563</c:v>
+                  <c:v>0.48628950175524016</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.57872469630375734</c:v>
+                  <c:v>0.66249409136334969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1318,7 +1318,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'ex2 (2)'!$F$27:$F$31</c:f>
+              <c:f>'ex2 (2)'!$F$40:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1342,24 +1342,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ex2 (2)'!$M$27:$M$31</c:f>
+              <c:f>'ex2 (2)'!$M$40:$M$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.81383160417715827</c:v>
+                  <c:v>0.90425733797462016</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.81383160417715839</c:v>
+                  <c:v>0.90425733797462027</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.80220543840319836</c:v>
+                  <c:v>0.89133937600355362</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.79348581407272856</c:v>
+                  <c:v>0.88165090452525385</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78670388403791813</c:v>
+                  <c:v>0.87411542670879772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1913,7 +1913,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>-1.1222925407304634</c:v>
+                  <c:v>0.19202832076433624</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-0.52763274208237199</c:v>
@@ -6426,16 +6426,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>486573</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>451620</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>3167</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>546105</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>121443</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>511151</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>112705</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6547,9 +6547,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6587,7 +6587,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6693,7 +6693,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6835,7 +6835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8058,7 +8058,7 @@
   <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8078,13 +8078,13 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4">
         <v>1750</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -8169,6 +8169,9 @@
         <v>1</v>
       </c>
       <c r="M7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>42</v>
       </c>
     </row>
@@ -8181,30 +8184,34 @@
       </c>
       <c r="G8" s="2">
         <f xml:space="preserve"> (1-L8/100)*F8</f>
-        <v>0.98</v>
+        <v>0.92900000000000005</v>
       </c>
       <c r="H8">
         <f xml:space="preserve"> G8-F8</f>
-        <v>-2.0000000000000018E-2</v>
+        <v>-7.0999999999999952E-2</v>
       </c>
       <c r="I8" s="4">
         <f xml:space="preserve"> H8/$B$11</f>
-        <v>-341.80927375440643</v>
+        <v>-1348.2476909201564</v>
       </c>
       <c r="J8" s="6">
         <f xml:space="preserve"> -I8/((1-$B$4)*$B$2)</f>
-        <v>0.32553264167086327</v>
+        <v>1.2840454199239584</v>
       </c>
       <c r="K8" s="6">
         <f xml:space="preserve"> J8/F8</f>
-        <v>0.32553264167086327</v>
+        <v>1.2840454199239584</v>
       </c>
       <c r="L8" s="7">
-        <v>2</v>
+        <v>7.1</v>
       </c>
       <c r="M8">
-        <f xml:space="preserve"> J8/F8^2</f>
-        <v>0.32553264167086327</v>
+        <f xml:space="preserve"> J8/F8</f>
+        <v>1.2840454199239584</v>
+      </c>
+      <c r="N8" s="6">
+        <f xml:space="preserve"> $B$11*J8 + 0</f>
+        <v>6.7619047619047558E-5</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -8212,7 +8219,7 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="C9" t="s">
         <v>0</v>
@@ -8224,31 +8231,35 @@
         <v>1.2</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" ref="G9:G12" si="0" xml:space="preserve"> (1-L9/100)*F9</f>
-        <v>1.1712</v>
+        <f t="shared" ref="G9:G17" si="0" xml:space="preserve"> (1-L9/100)*F9</f>
+        <v>1.1159999999999999</v>
       </c>
       <c r="H9">
-        <f t="shared" ref="H9:H12" si="1" xml:space="preserve"> G9-F9</f>
-        <v>-2.8799999999999937E-2</v>
+        <f t="shared" ref="H9:H17" si="1" xml:space="preserve"> G9-F9</f>
+        <v>-8.4000000000000075E-2</v>
       </c>
       <c r="I9" s="4">
-        <f t="shared" ref="I9:I12" si="2" xml:space="preserve"> H9/$B$11</f>
-        <v>-492.20535420634377</v>
+        <f t="shared" ref="I9:I17" si="2" xml:space="preserve"> H9/$B$11</f>
+        <v>-1595.10994418723</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" ref="J9:J12" si="3" xml:space="preserve"> -I9/((1-$B$4)*$B$2)</f>
-        <v>0.46876700400604171</v>
+        <f t="shared" ref="J9:J17" si="3" xml:space="preserve"> -I9/((1-$B$4)*$B$2)</f>
+        <v>1.519152327797362</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" ref="K9:K12" si="4" xml:space="preserve"> J9/F9</f>
-        <v>0.39063917000503479</v>
+        <f t="shared" ref="K9:K17" si="4" xml:space="preserve"> J9/F9</f>
+        <v>1.2659602731644684</v>
       </c>
       <c r="L9" s="7">
-        <v>2.4</v>
+        <v>7</v>
       </c>
       <c r="M9">
-        <f t="shared" ref="M9:M12" si="5" xml:space="preserve"> J9/F9^2</f>
-        <v>0.32553264167086232</v>
+        <f t="shared" ref="M9:M17" si="5" xml:space="preserve"> J9/F9</f>
+        <v>1.2659602731644684</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" ref="N9:N17" si="6" xml:space="preserve"> $B$11*J9 + 0</f>
+        <v>8.0000000000000074E-5</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -8257,7 +8268,7 @@
       </c>
       <c r="B10" s="4">
         <f>B7*B9/298</f>
-        <v>0.12080536912751678</v>
+        <v>0.13422818791946309</v>
       </c>
       <c r="C10" t="s">
         <v>20</v>
@@ -8270,30 +8281,34 @@
       </c>
       <c r="G10" s="2">
         <f t="shared" si="0"/>
-        <v>1.3607999999999998</v>
+        <v>1.3033999999999999</v>
       </c>
       <c r="H10">
         <f t="shared" si="1"/>
-        <v>-3.9200000000000124E-2</v>
+        <v>-9.6600000000000019E-2</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="2"/>
-        <v>-669.94617655863817</v>
+        <v>-1834.3764358153132</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" si="3"/>
-        <v>0.63804397767489351</v>
+        <v>1.7470251769669649</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="4"/>
-        <v>0.45574569833920969</v>
+        <v>1.247875126404975</v>
       </c>
       <c r="L10" s="7">
-        <v>2.8</v>
+        <v>6.9</v>
       </c>
       <c r="M10">
         <f t="shared" si="5"/>
-        <v>0.3255326416708641</v>
+        <v>1.247875126404975</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="6"/>
+        <v>9.2000000000000014E-5</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -8302,7 +8317,7 @@
       </c>
       <c r="B11" s="4">
         <f>$B$3/B10</f>
-        <v>5.8512163173109889E-5</v>
+        <v>5.2660946855798907E-5</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -8315,30 +8330,34 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>1.5488</v>
+        <v>1.4896000000000003</v>
       </c>
       <c r="H11">
         <f t="shared" si="1"/>
-        <v>-5.1200000000000134E-2</v>
+        <v>-0.11039999999999983</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>-875.03174081128202</v>
+        <v>-2096.4302123603543</v>
       </c>
       <c r="J11" s="6">
         <f t="shared" si="3"/>
-        <v>0.83336356267741141</v>
+        <v>1.9966002022479565</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="4"/>
-        <v>0.52085222667338205</v>
+        <v>1.2478751264049728</v>
       </c>
       <c r="L11" s="7">
-        <v>3.2</v>
+        <v>6.9</v>
       </c>
       <c r="M11">
         <f t="shared" si="5"/>
-        <v>0.32553264167086376</v>
+        <v>1.2478751264049728</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="6"/>
+        <v>1.0514285714285699E-4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -8350,690 +8369,966 @@
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>1.7352000000000001</v>
+        <v>1.6776</v>
       </c>
       <c r="H12">
         <f t="shared" si="1"/>
-        <v>-6.4799999999999969E-2</v>
+        <v>-0.12240000000000006</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="2"/>
-        <v>-1107.4620469642755</v>
+        <v>-2324.3030615299626</v>
       </c>
       <c r="J12" s="6">
         <f t="shared" si="3"/>
-        <v>1.0547257590135957</v>
+        <v>2.2136219633618692</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="4"/>
-        <v>0.58595875500755312</v>
+        <v>1.229789979645483</v>
       </c>
       <c r="L12" s="7">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="M12">
         <f t="shared" si="5"/>
-        <v>0.32553264167086282</v>
+        <v>1.229789979645483</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="6"/>
+        <v>1.1657142857142864E-4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>2</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="0"/>
+        <v>1.8660000000000001</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>-0.1339999999999999</v>
+      </c>
+      <c r="I13" s="4">
+        <f t="shared" si="2"/>
+        <v>-2544.5801490605768</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>2.4234096657719779</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="4"/>
+        <v>1.211704832885989</v>
+      </c>
+      <c r="L13" s="7">
+        <v>6.7</v>
+      </c>
       <c r="M13">
-        <f xml:space="preserve"> AVERAGE(M8:M12)</f>
-        <v>0.32553264167086327</v>
+        <f t="shared" si="5"/>
+        <v>1.211704832885989</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="6"/>
+        <v>1.2761904761904753E-4</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
+      <c r="E14" s="2">
+        <v>7</v>
+      </c>
+      <c r="F14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="0"/>
+        <v>2.0526000000000004</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>-0.14739999999999975</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>-2799.0381639666321</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="3"/>
+        <v>2.6657506323491735</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="4"/>
+        <v>1.2117048328859878</v>
+      </c>
+      <c r="L14" s="7">
+        <v>6.7</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="5"/>
+        <v>1.2117048328859878</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="6"/>
+        <v>1.4038095238095216E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E15" s="2">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>2.2415999999999996</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>-0.15840000000000032</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>-3007.9216090387799</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="3"/>
+        <v>2.8646872467035998</v>
+      </c>
+      <c r="K15" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1936196861265</v>
+      </c>
+      <c r="L15" s="7">
+        <v>6.6</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="5"/>
+        <v>1.1936196861265</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="6"/>
+        <v>1.5085714285714317E-4</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16">
-        <v>0.1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" s="1"/>
+      <c r="E16" s="2">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="0"/>
+        <v>2.431</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>-0.16900000000000004</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>-3209.2092924719245</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="3"/>
+        <v>3.056389802354214</v>
+      </c>
+      <c r="K16" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1755345393670054</v>
+      </c>
+      <c r="L16" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="5"/>
+        <v>1.1755345393670054</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="6"/>
+        <v>1.6095238095238098E-4</v>
+      </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
+        <v>10</v>
+      </c>
+      <c r="F17" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="0"/>
+        <v>2.6179999999999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>-0.18199999999999994</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>-3456.0715457389938</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="3"/>
+        <v>3.2914967102276131</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1755345393670047</v>
+      </c>
+      <c r="L17" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="5"/>
+        <v>1.1755345393670047</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="6"/>
+        <v>1.7333333333333328E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="M18">
+        <f xml:space="preserve"> AVERAGE(M8:M17)</f>
+        <v>1.2243644356176344</v>
+      </c>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="7"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22">
+        <f xml:space="preserve"> 0.08</f>
+        <v>0.08</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F17" s="2">
+      <c r="M22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="2">
-        <f xml:space="preserve"> (1-L17/100)*F17</f>
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="H17">
-        <f xml:space="preserve"> G17-F17</f>
-        <v>-3.7000000000000033E-2</v>
-      </c>
-      <c r="I17" s="4">
-        <f xml:space="preserve"> H17/$B$11</f>
-        <v>-632.34715644565199</v>
-      </c>
-      <c r="J17" s="6">
-        <f xml:space="preserve"> -I17/((1-$B$4)*$B$2)</f>
-        <v>0.60223538709109714</v>
-      </c>
-      <c r="K17" s="6">
-        <f xml:space="preserve"> J17/F17</f>
-        <v>0.60223538709109714</v>
-      </c>
-      <c r="L17" s="7">
-        <v>3.7</v>
-      </c>
-      <c r="M17" s="6">
-        <f xml:space="preserve"> J17/F17^2</f>
-        <v>0.60223538709109714</v>
-      </c>
-      <c r="N17" s="7"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>480</v>
-      </c>
-      <c r="C18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2</v>
-      </c>
-      <c r="F18" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" ref="G18:G21" si="6" xml:space="preserve"> (1-L18/100)*F18</f>
-        <v>1.1472</v>
-      </c>
-      <c r="H18">
-        <f t="shared" ref="H18:H21" si="7" xml:space="preserve"> G18-F18</f>
-        <v>-5.2799999999999958E-2</v>
-      </c>
-      <c r="I18" s="4">
-        <f t="shared" ref="I18:I21" si="8" xml:space="preserve"> H18/$B$11</f>
-        <v>-902.37648271163152</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" ref="J18:J21" si="9" xml:space="preserve"> -I18/((1-$B$4)*$B$2)</f>
-        <v>0.85940617401107766</v>
-      </c>
-      <c r="K18" s="6">
-        <f t="shared" ref="K18:K21" si="10" xml:space="preserve"> J18/F18</f>
-        <v>0.71617181167589805</v>
-      </c>
-      <c r="L18" s="7">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="M18" s="6">
-        <f t="shared" ref="M18:M21" si="11" xml:space="preserve"> J18/F18^2</f>
-        <v>0.59680984306324836</v>
-      </c>
-      <c r="N18" s="7"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="4">
-        <f>B16*B18/298</f>
-        <v>0.16107382550335569</v>
-      </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="6"/>
-        <v>1.3299999999999998</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="7"/>
-        <v>-7.0000000000000062E-2</v>
-      </c>
-      <c r="I19" s="4">
-        <f t="shared" si="8"/>
-        <v>-1196.3324581404227</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="9"/>
-        <v>1.1393642458480215</v>
-      </c>
-      <c r="K19" s="6">
-        <f t="shared" si="10"/>
-        <v>0.81383160417715827</v>
-      </c>
-      <c r="L19" s="7">
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+      <c r="G23" s="2">
+        <f xml:space="preserve"> (1-L23/100)*F23</f>
+        <v>0.95</v>
+      </c>
+      <c r="H23">
+        <f xml:space="preserve"> G23-F23</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="I23" s="4">
+        <f xml:space="preserve"> H23/$B$11</f>
+        <v>-949.47020487335112</v>
+      </c>
+      <c r="J23" s="6">
+        <f xml:space="preserve"> -I23/((1-$B$4)*$B$2)</f>
+        <v>0.90425733797462016</v>
+      </c>
+      <c r="K23" s="6">
+        <f xml:space="preserve"> J23/F23</f>
+        <v>0.90425733797462016</v>
+      </c>
+      <c r="L23" s="7">
         <v>5</v>
       </c>
-      <c r="M19" s="6">
-        <f t="shared" si="11"/>
-        <v>0.58130828869797024</v>
-      </c>
-      <c r="N19" s="7"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="4">
-        <f>$B$3/B19</f>
-        <v>4.3884122379832426E-5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="6"/>
-        <v>1.5087999999999999</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="7"/>
-        <v>-9.120000000000017E-2</v>
-      </c>
-      <c r="I20" s="4">
-        <f t="shared" si="8"/>
-        <v>-1558.6502883200949</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="9"/>
-        <v>1.4844288460191379</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="10"/>
-        <v>0.92776802876196118</v>
-      </c>
-      <c r="L20" s="7">
-        <v>5.7</v>
-      </c>
-      <c r="M20" s="6">
-        <f t="shared" si="11"/>
-        <v>0.57985501797622563</v>
-      </c>
-      <c r="N20" s="7"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="2">
-        <v>5</v>
-      </c>
-      <c r="F21" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="6"/>
-        <v>1.6847999999999999</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="7"/>
-        <v>-0.11520000000000019</v>
-      </c>
-      <c r="I21" s="4">
-        <f t="shared" si="8"/>
-        <v>-1968.8214168253826</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="9"/>
-        <v>1.8750680160241739</v>
-      </c>
-      <c r="K21" s="6">
-        <f t="shared" si="10"/>
-        <v>1.0417044533467632</v>
-      </c>
-      <c r="L21" s="7">
-        <v>6.4</v>
-      </c>
-      <c r="M21" s="6">
-        <f t="shared" si="11"/>
-        <v>0.57872469630375734</v>
-      </c>
-      <c r="N21" s="7"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L22" s="6"/>
-      <c r="M22" s="6">
-        <f xml:space="preserve"> AVERAGE(M17:M21)</f>
-        <v>0.58778664662645974</v>
-      </c>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
+      <c r="M23">
+        <f xml:space="preserve"> J23/F23^2</f>
+        <v>0.90425733797462016</v>
+      </c>
+      <c r="N23" s="6">
+        <f>J23*$B$26+0.25</f>
+        <v>0.25004761904761907</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="M24" s="8"/>
-      <c r="N24" s="1"/>
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>500</v>
+      </c>
+      <c r="C24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ref="G24:G32" si="7" xml:space="preserve"> (1-L24/100)*F24</f>
+        <v>1.1412</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H32" si="8" xml:space="preserve"> G24-F24</f>
+        <v>-5.8799999999999963E-2</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" ref="I24:I32" si="9" xml:space="preserve"> H24/$B$11</f>
+        <v>-1116.5769609310591</v>
+      </c>
+      <c r="J24" s="6">
+        <f t="shared" ref="J24:J32" si="10" xml:space="preserve"> -I24/((1-$B$4)*$B$2)</f>
+        <v>1.0634066294581517</v>
+      </c>
+      <c r="K24" s="6">
+        <f t="shared" ref="K24:K32" si="11" xml:space="preserve"> J24/F24</f>
+        <v>0.88617219121512647</v>
+      </c>
+      <c r="L24" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ref="M24:M27" si="12" xml:space="preserve"> J24/F24^2</f>
+        <v>0.73847682601260534</v>
+      </c>
+      <c r="N24" s="6">
+        <f t="shared" ref="N24:N32" si="13">J24*$B$26+0.25</f>
+        <v>0.250056</v>
+      </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M25" s="6"/>
-      <c r="N25" s="7"/>
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="4">
+        <f>B22*B24/298</f>
+        <v>0.13422818791946309</v>
+      </c>
+      <c r="C25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
+        <v>1.3313999999999999</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="8"/>
+        <v>-6.8599999999999994E-2</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="9"/>
+        <v>-1302.6731210862365</v>
+      </c>
+      <c r="J25" s="6">
+        <f t="shared" si="10"/>
+        <v>1.2406410677011777</v>
+      </c>
+      <c r="K25" s="6">
+        <f t="shared" si="11"/>
+        <v>0.88617219121512691</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="12"/>
+        <v>0.63298013658223362</v>
+      </c>
+      <c r="N25" s="6">
+        <f t="shared" si="13"/>
+        <v>0.25006533333333331</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26">
-        <v>0.15</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="4">
+        <f>$B$3/B25</f>
+        <v>5.2660946855798907E-5</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N26" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="7"/>
+        <v>1.5220800000000001</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="8"/>
+        <v>-7.7919999999999989E-2</v>
+      </c>
+      <c r="I26" s="4">
+        <f t="shared" si="9"/>
+        <v>-1479.6543672746288</v>
+      </c>
+      <c r="J26" s="6">
+        <f t="shared" si="10"/>
+        <v>1.4091946354996465</v>
+      </c>
+      <c r="K26" s="6">
+        <f t="shared" si="11"/>
+        <v>0.88074664718727902</v>
+      </c>
+      <c r="L26" s="7">
+        <v>4.87</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="12"/>
+        <v>0.55046665449204935</v>
+      </c>
+      <c r="N26" s="6">
+        <f t="shared" si="13"/>
+        <v>0.25007420952380954</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E27" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F27" s="2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="G27" s="2">
-        <f xml:space="preserve"> (1-L27/100)*F27</f>
-        <v>0.95</v>
+        <f t="shared" si="7"/>
+        <v>1.71288</v>
       </c>
       <c r="H27">
-        <f xml:space="preserve"> G27-F27</f>
-        <v>-5.0000000000000044E-2</v>
+        <f t="shared" si="8"/>
+        <v>-8.7120000000000086E-2</v>
       </c>
       <c r="I27" s="4">
-        <f xml:space="preserve"> H27/$B$11</f>
-        <v>-854.52318438601617</v>
+        <f t="shared" si="9"/>
+        <v>-1654.3568849713272</v>
       </c>
       <c r="J27" s="6">
-        <f xml:space="preserve"> -I27/((1-$B$4)*$B$2)</f>
-        <v>0.81383160417715827</v>
+        <f t="shared" si="10"/>
+        <v>1.5755779856869783</v>
       </c>
       <c r="K27" s="6">
-        <f xml:space="preserve"> J27/F27</f>
-        <v>0.81383160417715827</v>
+        <f t="shared" si="11"/>
+        <v>0.87532110315943235</v>
       </c>
       <c r="L27" s="7">
-        <v>5</v>
-      </c>
-      <c r="M27" s="6">
-        <f xml:space="preserve"> J27/F27^2</f>
-        <v>0.81383160417715827</v>
-      </c>
-      <c r="N27" s="7"/>
+        <v>4.84</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="12"/>
+        <v>0.48628950175524016</v>
+      </c>
+      <c r="N27" s="6">
+        <f t="shared" si="13"/>
+        <v>0.25008297142857144</v>
+      </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>510</v>
-      </c>
-      <c r="C28" t="s">
-        <v>0</v>
-      </c>
       <c r="E28" s="2">
+        <v>6</v>
+      </c>
+      <c r="F28" s="2">
         <v>2</v>
       </c>
-      <c r="F28" s="2">
-        <v>1.2</v>
-      </c>
       <c r="G28" s="2">
-        <f t="shared" ref="G28:G31" si="12" xml:space="preserve"> (1-L28/100)*F28</f>
-        <v>1.1279999999999999</v>
+        <f t="shared" si="7"/>
+        <v>1.9036</v>
       </c>
       <c r="H28">
-        <f t="shared" ref="H28:H31" si="13" xml:space="preserve"> G28-F28</f>
-        <v>-7.2000000000000064E-2</v>
+        <f t="shared" si="8"/>
+        <v>-9.6400000000000041E-2</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" ref="I28:I31" si="14" xml:space="preserve"> H28/$B$11</f>
-        <v>-1230.5133855158633</v>
+        <f t="shared" si="9"/>
+        <v>-1830.5785549958202</v>
       </c>
       <c r="J28" s="6">
-        <f t="shared" ref="J28:J31" si="15" xml:space="preserve"> -I28/((1-$B$4)*$B$2)</f>
-        <v>1.171917510015108</v>
+        <f t="shared" si="10"/>
+        <v>1.7434081476150669</v>
       </c>
       <c r="K28" s="6">
-        <f t="shared" ref="K28:K31" si="16" xml:space="preserve"> J28/F28</f>
-        <v>0.97659792501259002</v>
+        <f t="shared" si="11"/>
+        <v>0.87170407380753345</v>
       </c>
       <c r="L28" s="7">
-        <v>6</v>
-      </c>
-      <c r="M28" s="6">
-        <f t="shared" ref="M28:M31" si="17" xml:space="preserve"> J28/F28^2</f>
-        <v>0.81383160417715839</v>
-      </c>
-      <c r="N28" s="7"/>
+        <v>4.82</v>
+      </c>
+      <c r="M28">
+        <f xml:space="preserve"> AVERAGE(M23:M27)</f>
+        <v>0.66249409136334969</v>
+      </c>
+      <c r="N28" s="6">
+        <f t="shared" si="13"/>
+        <v>0.25009180952380955</v>
+      </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="4">
-        <f>B26*B28/298</f>
-        <v>0.25671140939597314</v>
-      </c>
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
       <c r="E29" s="2">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F29" s="2">
-        <v>1.4</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="12"/>
-        <v>1.3033999999999999</v>
+        <f t="shared" si="7"/>
+        <v>2.0946199999999999</v>
       </c>
       <c r="H29">
+        <f t="shared" si="8"/>
+        <v>-0.10538000000000025</v>
+      </c>
+      <c r="I29" s="4">
+        <f t="shared" si="9"/>
+        <v>-2001.1034037910779</v>
+      </c>
+      <c r="J29" s="6">
+        <f t="shared" si="10"/>
+        <v>1.9058127655153123</v>
+      </c>
+      <c r="K29" s="6">
+        <f t="shared" si="11"/>
+        <v>0.86627852977968733</v>
+      </c>
+      <c r="L29" s="7">
+        <v>4.79</v>
+      </c>
+      <c r="M29">
+        <f xml:space="preserve"> J29/F29^2</f>
+        <v>0.39376296808167605</v>
+      </c>
+      <c r="N29" s="6">
         <f t="shared" si="13"/>
-        <v>-9.6600000000000019E-2</v>
-      </c>
-      <c r="I29" s="4">
-        <f t="shared" si="14"/>
-        <v>-1650.9387922337821</v>
-      </c>
-      <c r="J29" s="6">
-        <f t="shared" si="15"/>
-        <v>1.5723226592702686</v>
-      </c>
-      <c r="K29" s="6">
-        <f t="shared" si="16"/>
-        <v>1.1230876137644776</v>
-      </c>
-      <c r="L29" s="7">
-        <v>6.9</v>
-      </c>
-      <c r="M29" s="6">
-        <f t="shared" si="17"/>
-        <v>0.80220543840319836</v>
-      </c>
-      <c r="N29" s="7"/>
+        <v>0.25010036190476193</v>
+      </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" s="4">
-        <f>$B$3/B29</f>
-        <v>2.7535135610875244E-5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
       <c r="E30" s="2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F30" s="2">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="12"/>
-        <v>1.4752000000000001</v>
+        <f t="shared" si="7"/>
+        <v>2.2857599999999998</v>
       </c>
       <c r="H30">
+        <f t="shared" si="8"/>
+        <v>-0.11424000000000012</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="9"/>
+        <v>-2169.3495240946331</v>
+      </c>
+      <c r="J30" s="6">
+        <f t="shared" si="10"/>
+        <v>2.0660471658044126</v>
+      </c>
+      <c r="K30" s="6">
+        <f t="shared" si="11"/>
+        <v>0.86085298575183866</v>
+      </c>
+      <c r="L30" s="7">
+        <v>4.76</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30:M32" si="14" xml:space="preserve"> J30/F30^2</f>
+        <v>0.35868874406326612</v>
+      </c>
+      <c r="N30" s="6">
         <f t="shared" si="13"/>
-        <v>-0.12480000000000002</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="14"/>
-        <v>-2132.8898682274948</v>
-      </c>
-      <c r="J30" s="6">
-        <f t="shared" si="15"/>
-        <v>2.0313236840261855</v>
-      </c>
-      <c r="K30" s="6">
-        <f t="shared" si="16"/>
-        <v>1.2695773025163659</v>
-      </c>
-      <c r="L30" s="7">
-        <v>7.8</v>
-      </c>
-      <c r="M30" s="6">
-        <f t="shared" si="17"/>
-        <v>0.79348581407272856</v>
-      </c>
-      <c r="N30" s="4"/>
+        <v>0.25010880000000002</v>
+      </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="12"/>
-        <v>1.6434000000000002</v>
+        <f t="shared" si="7"/>
+        <v>2.4767600000000001</v>
       </c>
       <c r="H31">
+        <f t="shared" si="8"/>
+        <v>-0.12324000000000002</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="9"/>
+        <v>-2340.2541609718342</v>
+      </c>
+      <c r="J31" s="6">
+        <f t="shared" si="10"/>
+        <v>2.2288134866398419</v>
+      </c>
+      <c r="K31" s="6">
+        <f t="shared" si="11"/>
+        <v>0.85723595639993921</v>
+      </c>
+      <c r="L31" s="7">
+        <v>4.74</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="14"/>
+        <v>0.32970613707689966</v>
+      </c>
+      <c r="N31" s="6">
         <f t="shared" si="13"/>
-        <v>-0.15659999999999985</v>
-      </c>
-      <c r="I31" s="4">
+        <v>0.25011737142857143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>10</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="7"/>
+        <v>2.6681199999999996</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="8"/>
+        <v>-0.13188000000000022</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="9"/>
+        <v>-2504.3226123739528</v>
+      </c>
+      <c r="J32" s="6">
+        <f t="shared" si="10"/>
+        <v>2.3850691546418599</v>
+      </c>
+      <c r="K32" s="6">
+        <f t="shared" si="11"/>
+        <v>0.85181041237209287</v>
+      </c>
+      <c r="L32" s="7">
+        <v>4.71</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="14"/>
-        <v>-2676.3666134969976</v>
-      </c>
-      <c r="J31" s="6">
-        <f t="shared" si="15"/>
-        <v>2.5489205842828548</v>
-      </c>
-      <c r="K31" s="6">
-        <f t="shared" si="16"/>
-        <v>1.4160669912682526</v>
-      </c>
-      <c r="L31" s="7">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="M31" s="6">
-        <f t="shared" si="17"/>
-        <v>0.78670388403791813</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L38" s="6"/>
+        <v>0.30421800441860464</v>
+      </c>
+      <c r="N32" s="6">
+        <f t="shared" si="13"/>
+        <v>0.2501256</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="8"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M38" s="6"/>
       <c r="N38" s="4"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39">
+        <v>0.15</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M39" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2">
+        <f xml:space="preserve"> (1-L40/100)*F40</f>
+        <v>0.95</v>
+      </c>
+      <c r="H40">
+        <f xml:space="preserve"> G40-F40</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="I40" s="4">
+        <f xml:space="preserve"> H40/$B$11</f>
+        <v>-949.47020487335112</v>
+      </c>
+      <c r="J40" s="6">
+        <f xml:space="preserve"> -I40/((1-$B$4)*$B$2)</f>
+        <v>0.90425733797462016</v>
+      </c>
+      <c r="K40" s="6">
+        <f xml:space="preserve"> J40/F40</f>
+        <v>0.90425733797462016</v>
+      </c>
+      <c r="L40" s="7">
+        <v>5</v>
+      </c>
+      <c r="M40" s="6">
+        <f xml:space="preserve"> J40/F40^2</f>
+        <v>0.90425733797462016</v>
+      </c>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>510</v>
+      </c>
+      <c r="C41" t="s">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" ref="G41:G44" si="15" xml:space="preserve"> (1-L41/100)*F41</f>
+        <v>1.1279999999999999</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ref="H41:H44" si="16" xml:space="preserve"> G41-F41</f>
+        <v>-7.2000000000000064E-2</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" ref="I41:I44" si="17" xml:space="preserve"> H41/$B$11</f>
+        <v>-1367.2370950176257</v>
+      </c>
+      <c r="J41" s="6">
+        <f t="shared" ref="J41:J44" si="18" xml:space="preserve"> -I41/((1-$B$4)*$B$2)</f>
+        <v>1.3021305666834531</v>
+      </c>
+      <c r="K41" s="6">
+        <f t="shared" ref="K41:K44" si="19" xml:space="preserve"> J41/F41</f>
+        <v>1.0851088055695444</v>
+      </c>
+      <c r="L41" s="7">
+        <v>6</v>
+      </c>
+      <c r="M41" s="6">
+        <f t="shared" ref="M41:M44" si="20" xml:space="preserve"> J41/F41^2</f>
+        <v>0.90425733797462027</v>
+      </c>
       <c r="N41" s="7"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="4">
+        <f>B39*B41/298</f>
+        <v>0.25671140939597314</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="15"/>
+        <v>1.3033999999999999</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="16"/>
+        <v>-9.6600000000000019E-2</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="17"/>
+        <v>-1834.3764358153132</v>
+      </c>
+      <c r="J42" s="6">
+        <f t="shared" si="18"/>
+        <v>1.7470251769669649</v>
+      </c>
+      <c r="K42" s="6">
+        <f t="shared" si="19"/>
+        <v>1.247875126404975</v>
+      </c>
+      <c r="L42" s="7">
+        <v>6.9</v>
+      </c>
+      <c r="M42" s="6">
+        <f t="shared" si="20"/>
+        <v>0.89133937600355362</v>
+      </c>
       <c r="N42" s="7"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B43" s="4">
+        <f>$B$3/B42</f>
+        <v>2.7535135610875244E-5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="15"/>
+        <v>1.4752000000000001</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="16"/>
+        <v>-0.12480000000000002</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="17"/>
+        <v>-2369.8776313638828</v>
+      </c>
+      <c r="J43" s="6">
+        <f t="shared" si="18"/>
+        <v>2.2570263155846502</v>
+      </c>
+      <c r="K43" s="6">
+        <f t="shared" si="19"/>
+        <v>1.4106414472404063</v>
+      </c>
+      <c r="L43" s="7">
+        <v>7.8</v>
+      </c>
+      <c r="M43" s="6">
+        <f t="shared" si="20"/>
+        <v>0.88165090452525385</v>
+      </c>
       <c r="N43" s="7"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="15"/>
+        <v>1.6434000000000002</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="16"/>
+        <v>-0.15659999999999985</v>
+      </c>
+      <c r="I44" s="4">
+        <f t="shared" si="17"/>
+        <v>-2973.7406816633302</v>
+      </c>
+      <c r="J44" s="6">
+        <f t="shared" si="18"/>
+        <v>2.8321339825365048</v>
+      </c>
+      <c r="K44" s="6">
+        <f t="shared" si="19"/>
+        <v>1.573407768075836</v>
+      </c>
+      <c r="L44" s="7">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M44" s="6">
+        <f t="shared" si="20"/>
+        <v>0.87411542670879772</v>
+      </c>
       <c r="N44" s="7"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
@@ -9044,7 +9339,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="7"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N46" s="4"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -9067,11 +9362,11 @@
       </c>
       <c r="B50" s="6">
         <f xml:space="preserve"> $M$13</f>
-        <v>0.32553264167086327</v>
+        <v>1.211704832885989</v>
       </c>
       <c r="C50" s="6">
         <f>LN(B50)</f>
-        <v>-1.1222925407304634</v>
+        <v>0.19202832076433624</v>
       </c>
       <c r="D50">
         <f>-1/A50</f>
@@ -9086,11 +9381,11 @@
         <v>0.59</v>
       </c>
       <c r="C51" s="6">
-        <f t="shared" ref="C51:C52" si="18">LN(B51)</f>
+        <f t="shared" ref="C51:C52" si="21">LN(B51)</f>
         <v>-0.52763274208237199</v>
       </c>
       <c r="D51">
-        <f t="shared" ref="D51:D52" si="19">-1/A51</f>
+        <f t="shared" ref="D51:D52" si="22">-1/A51</f>
         <v>-2.0833333333333333E-3</v>
       </c>
     </row>
@@ -9102,11 +9397,11 @@
         <v>0.8</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-0.22314355131420971</v>
       </c>
       <c r="D52">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-1.9607843137254902E-3</v>
       </c>
     </row>
